--- a/Incremental Demon Game Project/actions.xlsx
+++ b/Incremental Demon Game Project/actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amanda\Documents\incremental-demon-game\Incremental Demon Game Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A382FA-C707-42D1-A559-05476DC8D996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7303E696-20C5-4E2A-942C-9A44ABE56AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>action ID</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Buy low and sell high! It's simple with a bit of magic-fueled coercion</t>
+  </si>
+  <si>
+    <t>dev notes</t>
+  </si>
+  <si>
+    <t>We can write anything here and it won't be pulled into the game. For instance, what guesture should we use for this action? Maybe a circle/swirl? I'm definitely thinking a demon summoning circle for the icon</t>
+  </si>
+  <si>
+    <t>For the gesture maybe a horizonal swipe to represent the exchange of money between hands?</t>
   </si>
 </sst>
 </file>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +422,7 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +447,11 @@
       <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -464,8 +476,11 @@
       <c r="H2">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -489,6 +504,9 @@
       </c>
       <c r="H3">
         <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
